--- a/Knock_Knock/Knock_Knock_BOM.xlsx
+++ b/Knock_Knock/Knock_Knock_BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Value</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Document Version 02/04/2023</t>
+  </si>
+  <si>
+    <t>M3 screws or M3 x 16mm bolt</t>
+  </si>
+  <si>
+    <t>M3 nut</t>
+  </si>
+  <si>
+    <t>10 millimeter spacer</t>
+  </si>
+  <si>
+    <t>I added a .stl file for 3D printing a simple spacer.</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,6 +1734,36 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Knock_Knock/Knock_Knock_BOM.xlsx
+++ b/Knock_Knock/Knock_Knock_BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>Value</t>
   </si>
@@ -298,9 +298,6 @@
     <t>22k</t>
   </si>
   <si>
-    <t>Document Version 02/04/2023</t>
-  </si>
-  <si>
     <t>M3 screws or M3 x 16mm bolt</t>
   </si>
   <si>
@@ -311,6 +308,21 @@
   </si>
   <si>
     <t>I added a .stl file for 3D printing a simple spacer.</t>
+  </si>
+  <si>
+    <t>ATTINY 84A-SSU</t>
+  </si>
+  <si>
+    <t>SMD HC 595</t>
+  </si>
+  <si>
+    <t>SMD 40106</t>
+  </si>
+  <si>
+    <t>SMD 4028</t>
+  </si>
+  <si>
+    <t>Document Version 03/04/2023</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1217,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1258,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,7 +1610,9 @@
         <v>68</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1617,7 +1631,9 @@
         <v>69</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1652,9 @@
         <v>68</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1655,7 +1673,9 @@
         <v>69</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
         <v>96</v>
-      </c>
-      <c r="G35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
